--- a/data_month/zb/工业/工业分大类行业出口交货值(2003-2011)/工业出口交货值.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2003-2011)/工业出口交货值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1943 +454,2254 @@
           <t>工业出口交货值_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>工业出口交货值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.4</v>
+        <v>25.4</v>
       </c>
       <c r="C2" t="n">
-        <v>2492.12</v>
+        <v>1575.55</v>
       </c>
       <c r="D2" t="n">
-        <v>21259.12</v>
+        <v>1575.55</v>
       </c>
       <c r="E2" t="n">
-        <v>29.2</v>
+        <v>25.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1575.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.6</v>
+        <v>33.5</v>
       </c>
       <c r="C3" t="n">
-        <v>2614.34</v>
+        <v>1604.67</v>
       </c>
       <c r="D3" t="n">
-        <v>23929.71</v>
+        <v>3219.2</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4</v>
+        <v>30.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1643.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.1</v>
+        <v>29.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2973.83</v>
+        <v>1914.37</v>
       </c>
       <c r="D4" t="n">
-        <v>27088.96</v>
+        <v>5145.94</v>
       </c>
       <c r="E4" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1926.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.4</v>
+        <v>28.8</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.55</v>
+        <v>2070.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.55</v>
+        <v>7264.94</v>
       </c>
       <c r="E5" t="n">
-        <v>25.4</v>
+        <v>29.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.5</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1604.67</v>
+        <v>2058.46</v>
       </c>
       <c r="D6" t="n">
-        <v>3219.2</v>
+        <v>9355.209999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>30.6</v>
+        <v>29.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2090.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C7" t="n">
-        <v>1914.37</v>
+        <v>2284.63</v>
       </c>
       <c r="D7" t="n">
-        <v>5145.94</v>
+        <v>11682.94</v>
       </c>
       <c r="E7" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2327.730000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="C8" t="n">
-        <v>2070.1</v>
+        <v>2187.67</v>
       </c>
       <c r="D8" t="n">
-        <v>7264.94</v>
+        <v>13903.42</v>
       </c>
       <c r="E8" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2220.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>28.5</v>
       </c>
       <c r="C9" t="n">
-        <v>2058.46</v>
+        <v>2319.9</v>
       </c>
       <c r="D9" t="n">
-        <v>9355.209999999999</v>
+        <v>16237.17</v>
       </c>
       <c r="E9" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2333.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.6</v>
+        <v>26.1</v>
       </c>
       <c r="C10" t="n">
-        <v>2284.63</v>
+        <v>2416.84</v>
       </c>
       <c r="D10" t="n">
-        <v>11682.94</v>
+        <v>18715.83</v>
       </c>
       <c r="E10" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2478.660000000002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.3</v>
+        <v>29.4</v>
       </c>
       <c r="C11" t="n">
-        <v>2187.67</v>
+        <v>2492.12</v>
       </c>
       <c r="D11" t="n">
-        <v>13903.42</v>
+        <v>21259.12</v>
       </c>
       <c r="E11" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2543.289999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.5</v>
+        <v>29.6</v>
       </c>
       <c r="C12" t="n">
-        <v>2319.9</v>
+        <v>2614.34</v>
       </c>
       <c r="D12" t="n">
-        <v>16237.17</v>
+        <v>23929.71</v>
       </c>
       <c r="E12" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2670.59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.1</v>
+        <v>35.1</v>
       </c>
       <c r="C13" t="n">
-        <v>2416.84</v>
+        <v>2973.83</v>
       </c>
       <c r="D13" t="n">
-        <v>18715.83</v>
+        <v>27088.96</v>
       </c>
       <c r="E13" t="n">
-        <v>29.1</v>
+        <v>30.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3159.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.8</v>
+        <v>15.8</v>
       </c>
       <c r="C14" t="n">
-        <v>3433.86</v>
+        <v>1940.75</v>
       </c>
       <c r="D14" t="n">
-        <v>29203.9</v>
+        <v>1940.75</v>
       </c>
       <c r="E14" t="n">
-        <v>33.2</v>
+        <v>15.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1940.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.4</v>
+        <v>36.3</v>
       </c>
       <c r="C15" t="n">
-        <v>3529.75</v>
+        <v>2321.48</v>
       </c>
       <c r="D15" t="n">
-        <v>32736.62</v>
+        <v>4292.27</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>26.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2351.52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.9</v>
+        <v>36.3</v>
       </c>
       <c r="C16" t="n">
-        <v>3841.53</v>
+        <v>2672.49</v>
       </c>
       <c r="D16" t="n">
-        <v>36840.86</v>
+        <v>6990.72</v>
       </c>
       <c r="E16" t="n">
-        <v>32.6</v>
+        <v>30.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2698.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.8</v>
+        <v>32.7</v>
       </c>
       <c r="C17" t="n">
-        <v>1940.75</v>
+        <v>2827.63</v>
       </c>
       <c r="D17" t="n">
-        <v>1940.75</v>
+        <v>9848.93</v>
       </c>
       <c r="E17" t="n">
-        <v>15.8</v>
+        <v>31.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2858.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.3</v>
+        <v>34.1</v>
       </c>
       <c r="C18" t="n">
-        <v>2321.48</v>
+        <v>2882.06</v>
       </c>
       <c r="D18" t="n">
-        <v>4292.27</v>
+        <v>12758.99</v>
       </c>
       <c r="E18" t="n">
-        <v>26.3</v>
+        <v>32.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2910.059999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.3</v>
+        <v>33.1</v>
       </c>
       <c r="C19" t="n">
-        <v>2672.49</v>
+        <v>3119.01</v>
       </c>
       <c r="D19" t="n">
-        <v>6990.72</v>
+        <v>15924.13</v>
       </c>
       <c r="E19" t="n">
-        <v>30.5</v>
+        <v>32.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3165.139999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.7</v>
+        <v>33.3</v>
       </c>
       <c r="C20" t="n">
-        <v>2827.63</v>
+        <v>3024.05</v>
       </c>
       <c r="D20" t="n">
-        <v>9848.93</v>
+        <v>18991.96</v>
       </c>
       <c r="E20" t="n">
-        <v>31.2</v>
+        <v>32.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3067.83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.1</v>
+        <v>32.1</v>
       </c>
       <c r="C21" t="n">
-        <v>2882.06</v>
+        <v>3150.99</v>
       </c>
       <c r="D21" t="n">
-        <v>12758.99</v>
+        <v>22196.64</v>
       </c>
       <c r="E21" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3204.68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="C22" t="n">
-        <v>3119.01</v>
+        <v>3382.18</v>
       </c>
       <c r="D22" t="n">
-        <v>15924.13</v>
+        <v>25669.45</v>
       </c>
       <c r="E22" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3472.810000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="C23" t="n">
-        <v>3024.05</v>
+        <v>3433.86</v>
       </c>
       <c r="D23" t="n">
-        <v>18991.96</v>
+        <v>29203.9</v>
       </c>
       <c r="E23" t="n">
-        <v>32.4</v>
+        <v>33.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3534.450000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="C24" t="n">
-        <v>3150.99</v>
+        <v>3529.75</v>
       </c>
       <c r="D24" t="n">
-        <v>22196.64</v>
+        <v>32736.62</v>
       </c>
       <c r="E24" t="n">
-        <v>32.6</v>
+        <v>33</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3532.719999999998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.9</v>
+        <v>25.9</v>
       </c>
       <c r="C25" t="n">
-        <v>3382.18</v>
+        <v>3841.53</v>
       </c>
       <c r="D25" t="n">
-        <v>25669.45</v>
+        <v>36840.86</v>
       </c>
       <c r="E25" t="n">
         <v>32.6</v>
       </c>
+      <c r="F25" t="n">
+        <v>4104.240000000002</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.8</v>
+        <v>45.8</v>
       </c>
       <c r="C26" t="n">
-        <v>4318.95</v>
+        <v>3043.42</v>
       </c>
       <c r="D26" t="n">
-        <v>38140.27</v>
+        <v>3043.42</v>
       </c>
       <c r="E26" t="n">
-        <v>27.6</v>
+        <v>45.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3043.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="C27" t="n">
-        <v>4440.1</v>
+        <v>2796.84</v>
       </c>
       <c r="D27" t="n">
-        <v>42662.73</v>
+        <v>5838.33</v>
       </c>
       <c r="E27" t="n">
-        <v>26.8</v>
+        <v>33.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2794.91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.1</v>
+        <v>25.7</v>
       </c>
       <c r="C28" t="n">
-        <v>4822.7</v>
+        <v>3431.27</v>
       </c>
       <c r="D28" t="n">
-        <v>47948.89</v>
+        <v>9473.02</v>
       </c>
       <c r="E28" t="n">
-        <v>26.1</v>
+        <v>31.6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3634.690000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.8</v>
+        <v>29.9</v>
       </c>
       <c r="C29" t="n">
-        <v>3043.42</v>
+        <v>3792.72</v>
       </c>
       <c r="D29" t="n">
-        <v>3043.42</v>
+        <v>13374.25</v>
       </c>
       <c r="E29" t="n">
-        <v>45.8</v>
+        <v>31.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3901.23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.4</v>
+        <v>30.2</v>
       </c>
       <c r="C30" t="n">
-        <v>2796.84</v>
+        <v>3805.19</v>
       </c>
       <c r="D30" t="n">
-        <v>5838.33</v>
+        <v>17242.82</v>
       </c>
       <c r="E30" t="n">
-        <v>33.4</v>
+        <v>31.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3868.57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.7</v>
+        <v>27.5</v>
       </c>
       <c r="C31" t="n">
-        <v>3431.27</v>
+        <v>4037.28</v>
       </c>
       <c r="D31" t="n">
-        <v>9473.02</v>
+        <v>21386.14</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4143.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.9</v>
+        <v>26.1</v>
       </c>
       <c r="C32" t="n">
-        <v>3792.72</v>
+        <v>3913.35</v>
       </c>
       <c r="D32" t="n">
-        <v>13374.25</v>
+        <v>25374.31</v>
       </c>
       <c r="E32" t="n">
-        <v>31.2</v>
+        <v>30.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3988.170000000002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.2</v>
+        <v>21.3</v>
       </c>
       <c r="C33" t="n">
-        <v>3805.19</v>
+        <v>3972.07</v>
       </c>
       <c r="D33" t="n">
-        <v>17242.82</v>
+        <v>29415.91</v>
       </c>
       <c r="E33" t="n">
-        <v>31.6</v>
+        <v>29.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4041.599999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.5</v>
+        <v>20.1</v>
       </c>
       <c r="C34" t="n">
-        <v>4037.28</v>
+        <v>4206.68</v>
       </c>
       <c r="D34" t="n">
-        <v>21386.14</v>
+        <v>33723.55</v>
       </c>
       <c r="E34" t="n">
-        <v>31.5</v>
+        <v>28.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4307.640000000003</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.1</v>
+        <v>19.8</v>
       </c>
       <c r="C35" t="n">
-        <v>3913.35</v>
+        <v>4318.95</v>
       </c>
       <c r="D35" t="n">
-        <v>25374.31</v>
+        <v>38140.27</v>
       </c>
       <c r="E35" t="n">
-        <v>30.7</v>
+        <v>27.6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4416.719999999994</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="C36" t="n">
-        <v>3972.07</v>
+        <v>4440.1</v>
       </c>
       <c r="D36" t="n">
-        <v>29415.91</v>
+        <v>42662.73</v>
       </c>
       <c r="E36" t="n">
-        <v>29.2</v>
+        <v>26.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4522.460000000006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.1</v>
+        <v>18.1</v>
       </c>
       <c r="C37" t="n">
-        <v>4206.68</v>
+        <v>4822.7</v>
       </c>
       <c r="D37" t="n">
-        <v>33723.55</v>
+        <v>47948.89</v>
       </c>
       <c r="E37" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5286.159999999996</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22.2</v>
+        <v>29</v>
       </c>
       <c r="C38" t="n">
-        <v>5396.84</v>
+        <v>3703.45</v>
       </c>
       <c r="D38" t="n">
-        <v>47973.28</v>
+        <v>7453.95</v>
       </c>
       <c r="E38" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7453.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.6</v>
+        <v>27.2</v>
       </c>
       <c r="C39" t="n">
-        <v>5505.64</v>
+        <v>4338.12</v>
       </c>
       <c r="D39" t="n">
-        <v>53507.16</v>
+        <v>11859.84</v>
       </c>
       <c r="E39" t="n">
-        <v>23.3</v>
+        <v>24.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4405.89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.3</v>
+        <v>22.4</v>
       </c>
       <c r="C40" t="n">
-        <v>5861.42</v>
+        <v>4733</v>
       </c>
       <c r="D40" t="n">
-        <v>59630.45</v>
+        <v>16737.98</v>
       </c>
       <c r="E40" t="n">
-        <v>22.9</v>
+        <v>24.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4878.139999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>3703.45</v>
+        <v>4754.69</v>
       </c>
       <c r="D41" t="n">
-        <v>7453.95</v>
+        <v>21644.03</v>
       </c>
       <c r="E41" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4906.049999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27.2</v>
+        <v>25.3</v>
       </c>
       <c r="C42" t="n">
-        <v>4338.12</v>
+        <v>5127.3</v>
       </c>
       <c r="D42" t="n">
-        <v>11859.84</v>
+        <v>26880.99</v>
       </c>
       <c r="E42" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5236.960000000003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.4</v>
+        <v>21.8</v>
       </c>
       <c r="C43" t="n">
-        <v>4733</v>
+        <v>4877.38</v>
       </c>
       <c r="D43" t="n">
-        <v>16737.98</v>
+        <v>31832.27</v>
       </c>
       <c r="E43" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4951.279999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="C44" t="n">
-        <v>4754.69</v>
+        <v>5053.1</v>
       </c>
       <c r="D44" t="n">
-        <v>21644.03</v>
+        <v>36930.9</v>
       </c>
       <c r="E44" t="n">
-        <v>24.5</v>
+        <v>23.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5098.630000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.3</v>
+        <v>22.8</v>
       </c>
       <c r="C45" t="n">
-        <v>5127.3</v>
+        <v>5355.07</v>
       </c>
       <c r="D45" t="n">
-        <v>26880.99</v>
+        <v>42472.18</v>
       </c>
       <c r="E45" t="n">
-        <v>24.9</v>
+        <v>23.9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5541.279999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="C46" t="n">
-        <v>4877.38</v>
+        <v>5396.84</v>
       </c>
       <c r="D46" t="n">
-        <v>31832.27</v>
+        <v>47973.28</v>
       </c>
       <c r="E46" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5501.099999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>23.9</v>
+        <v>20.6</v>
       </c>
       <c r="C47" t="n">
-        <v>5053.1</v>
+        <v>5505.64</v>
       </c>
       <c r="D47" t="n">
-        <v>36930.9</v>
+        <v>53507.16</v>
       </c>
       <c r="E47" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5533.880000000005</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>22.8</v>
+        <v>20.3</v>
       </c>
       <c r="C48" t="n">
-        <v>5355.07</v>
+        <v>5861.42</v>
       </c>
       <c r="D48" t="n">
-        <v>42472.18</v>
+        <v>59630.45</v>
       </c>
       <c r="E48" t="n">
-        <v>23.9</v>
+        <v>22.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6123.289999999994</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18.53</v>
+        <v>15.52</v>
       </c>
       <c r="C49" t="n">
-        <v>6570.52</v>
+        <v>4341.69</v>
       </c>
       <c r="D49" t="n">
-        <v>58875.25</v>
+        <v>9389.52</v>
       </c>
       <c r="E49" t="n">
-        <v>21.43</v>
+        <v>23.56</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9389.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>19.49</v>
+        <v>23.42</v>
       </c>
       <c r="C50" t="n">
-        <v>6751.92</v>
+        <v>5449.79</v>
       </c>
       <c r="D50" t="n">
-        <v>65723.3</v>
+        <v>14955.45</v>
       </c>
       <c r="E50" t="n">
-        <v>21.37</v>
+        <v>23.67</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5565.93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>18.3</v>
+        <v>19.52</v>
       </c>
       <c r="C51" t="n">
-        <v>7110.03</v>
+        <v>5716.15</v>
       </c>
       <c r="D51" t="n">
-        <v>73134</v>
+        <v>20674.34</v>
       </c>
       <c r="E51" t="n">
-        <v>21.52</v>
+        <v>22.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5718.889999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15.52</v>
+        <v>19.89</v>
       </c>
       <c r="C52" t="n">
-        <v>4341.69</v>
+        <v>5760.44</v>
       </c>
       <c r="D52" t="n">
-        <v>9389.52</v>
+        <v>26497.1</v>
       </c>
       <c r="E52" t="n">
-        <v>23.56</v>
+        <v>21.57</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5822.759999999998</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>23.42</v>
+        <v>23.08</v>
       </c>
       <c r="C53" t="n">
-        <v>5449.79</v>
+        <v>6342.37</v>
       </c>
       <c r="D53" t="n">
-        <v>14955.45</v>
+        <v>32858.81</v>
       </c>
       <c r="E53" t="n">
-        <v>23.67</v>
+        <v>21.69</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6361.709999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>19.52</v>
+        <v>22.17</v>
       </c>
       <c r="C54" t="n">
-        <v>5716.15</v>
+        <v>6085.3</v>
       </c>
       <c r="D54" t="n">
-        <v>20674.34</v>
+        <v>39145.7</v>
       </c>
       <c r="E54" t="n">
-        <v>22.2</v>
+        <v>21.92</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6286.889999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>19.89</v>
+        <v>20.12</v>
       </c>
       <c r="C55" t="n">
-        <v>5760.44</v>
+        <v>6177.45</v>
       </c>
       <c r="D55" t="n">
-        <v>26497.1</v>
+        <v>45412.14</v>
       </c>
       <c r="E55" t="n">
-        <v>21.57</v>
+        <v>21.89</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6266.440000000002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>23.08</v>
+        <v>19.71</v>
       </c>
       <c r="C56" t="n">
-        <v>6342.37</v>
+        <v>6631.86</v>
       </c>
       <c r="D56" t="n">
-        <v>32858.81</v>
+        <v>52227.9</v>
       </c>
       <c r="E56" t="n">
-        <v>21.69</v>
+        <v>21.84</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6815.760000000002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>22.17</v>
+        <v>18.53</v>
       </c>
       <c r="C57" t="n">
-        <v>6085.3</v>
+        <v>6570.52</v>
       </c>
       <c r="D57" t="n">
-        <v>39145.7</v>
+        <v>58875.25</v>
       </c>
       <c r="E57" t="n">
-        <v>21.92</v>
+        <v>21.43</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6647.349999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>20.12</v>
+        <v>19.49</v>
       </c>
       <c r="C58" t="n">
-        <v>6177.45</v>
+        <v>6751.92</v>
       </c>
       <c r="D58" t="n">
-        <v>45412.14</v>
+        <v>65723.3</v>
       </c>
       <c r="E58" t="n">
-        <v>21.89</v>
+        <v>21.37</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6848.050000000003</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>19.71</v>
+        <v>18.3</v>
       </c>
       <c r="C59" t="n">
-        <v>6631.86</v>
+        <v>7110.03</v>
       </c>
       <c r="D59" t="n">
-        <v>52227.9</v>
+        <v>73134</v>
       </c>
       <c r="E59" t="n">
-        <v>21.84</v>
+        <v>21.52</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7410.699999999997</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6.8</v>
+        <v>15.4</v>
       </c>
       <c r="C60" t="n">
-        <v>7089.2</v>
+        <v>5060.9</v>
       </c>
       <c r="D60" t="n">
-        <v>67550.89999999999</v>
+        <v>10828.3</v>
       </c>
       <c r="E60" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10828.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-5.2</v>
+        <v>17.2</v>
       </c>
       <c r="C61" t="n">
-        <v>6448.5</v>
+        <v>6324.1</v>
       </c>
       <c r="D61" t="n">
-        <v>74264.39999999999</v>
+        <v>17353.4</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>17.1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6525.100000000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-8.800000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="C62" t="n">
-        <v>6471.4</v>
+        <v>6594.8</v>
       </c>
       <c r="D62" t="n">
-        <v>80844.3</v>
+        <v>24001.8</v>
       </c>
       <c r="E62" t="n">
-        <v>10.8</v>
+        <v>16.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6648.399999999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15.4</v>
+        <v>18.2</v>
       </c>
       <c r="C63" t="n">
-        <v>5060.9</v>
+        <v>6825.4</v>
       </c>
       <c r="D63" t="n">
-        <v>10828.3</v>
+        <v>30967.4</v>
       </c>
       <c r="E63" t="n">
-        <v>14.8</v>
+        <v>17.3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6965.600000000002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>17.2</v>
+        <v>13.3</v>
       </c>
       <c r="C64" t="n">
-        <v>6324.1</v>
+        <v>7209.8</v>
       </c>
       <c r="D64" t="n">
-        <v>17353.4</v>
+        <v>38334.4</v>
       </c>
       <c r="E64" t="n">
-        <v>17.1</v>
+        <v>17</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7367</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="C65" t="n">
-        <v>6594.8</v>
+        <v>6977.1</v>
       </c>
       <c r="D65" t="n">
-        <v>24001.8</v>
+        <v>45443.1</v>
       </c>
       <c r="E65" t="n">
-        <v>16.8</v>
+        <v>16.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7108.699999999997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>18.2</v>
+        <v>16.3</v>
       </c>
       <c r="C66" t="n">
-        <v>6825.4</v>
+        <v>7247.4</v>
       </c>
       <c r="D66" t="n">
-        <v>30967.4</v>
+        <v>52935.6</v>
       </c>
       <c r="E66" t="n">
-        <v>17.3</v>
+        <v>16.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7492.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="C67" t="n">
-        <v>7209.8</v>
+        <v>7508</v>
       </c>
       <c r="D67" t="n">
-        <v>38334.4</v>
+        <v>60491.9</v>
       </c>
       <c r="E67" t="n">
-        <v>17</v>
+        <v>15.7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7556.300000000003</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>14.5</v>
+        <v>6.8</v>
       </c>
       <c r="C68" t="n">
-        <v>6977.1</v>
+        <v>7089.2</v>
       </c>
       <c r="D68" t="n">
-        <v>45443.1</v>
+        <v>67550.89999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>16.3</v>
+        <v>14.6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7058.999999999993</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>16.3</v>
+        <v>-5.2</v>
       </c>
       <c r="C69" t="n">
-        <v>7247.4</v>
+        <v>6448.5</v>
       </c>
       <c r="D69" t="n">
-        <v>52935.6</v>
+        <v>74264.39999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>16.5</v>
+        <v>13</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6713.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>12.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>7508</v>
+        <v>6471.4</v>
       </c>
       <c r="D70" t="n">
-        <v>60491.9</v>
+        <v>80844.3</v>
       </c>
       <c r="E70" t="n">
-        <v>15.7</v>
+        <v>10.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6579.900000000009</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-7.31</v>
+        <v>-10.63</v>
       </c>
       <c r="C71" t="n">
-        <v>6658.7</v>
+        <v>4570.58</v>
       </c>
       <c r="D71" t="n">
-        <v>58275.13</v>
+        <v>8968.129999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.98</v>
+        <v>-17.05</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8968.129999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5.25</v>
+        <v>-13.91</v>
       </c>
       <c r="C72" t="n">
-        <v>6871.06</v>
+        <v>5437.67</v>
       </c>
       <c r="D72" t="n">
-        <v>65357.43</v>
+        <v>14528.47</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.14</v>
+        <v>-16.01</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5560.34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12.4</v>
+        <v>-14.31</v>
       </c>
       <c r="C73" t="n">
-        <v>7319.63</v>
+        <v>5662.05</v>
       </c>
       <c r="D73" t="n">
-        <v>72882.21000000001</v>
+        <v>20207.19</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.06</v>
+        <v>-15.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5678.719999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-10.63</v>
+        <v>-14.96</v>
       </c>
       <c r="C74" t="n">
-        <v>4570.58</v>
+        <v>5813.63</v>
       </c>
       <c r="D74" t="n">
-        <v>8968.129999999999</v>
+        <v>26130.87</v>
       </c>
       <c r="E74" t="n">
-        <v>-17.05</v>
+        <v>-15.52</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5923.68</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-13.91</v>
+        <v>-14.56</v>
       </c>
       <c r="C75" t="n">
-        <v>5437.67</v>
+        <v>6183.64</v>
       </c>
       <c r="D75" t="n">
-        <v>14528.47</v>
+        <v>32360.93</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.01</v>
+        <v>-15.52</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6230.060000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-14.31</v>
+        <v>-14.71</v>
       </c>
       <c r="C76" t="n">
-        <v>5662.05</v>
+        <v>6033.13</v>
       </c>
       <c r="D76" t="n">
-        <v>20207.19</v>
+        <v>38467</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.7</v>
+        <v>-15.58</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6106.07</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-14.96</v>
+        <v>-15.38</v>
       </c>
       <c r="C77" t="n">
-        <v>5813.63</v>
+        <v>6218.63</v>
       </c>
       <c r="D77" t="n">
-        <v>26130.87</v>
+        <v>44792.44</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.52</v>
+        <v>-15.43</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6325.440000000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-14.56</v>
+        <v>-9.880000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>6183.64</v>
+        <v>6798.79</v>
       </c>
       <c r="D78" t="n">
-        <v>32360.93</v>
+        <v>51637.17</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.52</v>
+        <v>-14.73</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6844.729999999996</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-14.71</v>
+        <v>-7.31</v>
       </c>
       <c r="C79" t="n">
-        <v>6033.13</v>
+        <v>6658.7</v>
       </c>
       <c r="D79" t="n">
-        <v>38467</v>
+        <v>58275.13</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.58</v>
+        <v>-13.98</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6637.959999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-15.38</v>
+        <v>5.25</v>
       </c>
       <c r="C80" t="n">
-        <v>6218.63</v>
+        <v>6871.06</v>
       </c>
       <c r="D80" t="n">
-        <v>44792.44</v>
+        <v>65357.43</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.43</v>
+        <v>-12.14</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7082.300000000003</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-9.880000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="C81" t="n">
-        <v>6798.79</v>
+        <v>7319.63</v>
       </c>
       <c r="D81" t="n">
-        <v>51637.17</v>
+        <v>72882.21000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.73</v>
+        <v>-10.06</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7524.780000000006</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>21.64</v>
+        <v>13.1</v>
       </c>
       <c r="C82" t="n">
-        <v>8124.41</v>
+        <v>5237.59</v>
       </c>
       <c r="D82" t="n">
-        <v>73490.16</v>
+        <v>11170.61</v>
       </c>
       <c r="E82" t="n">
-        <v>26.88</v>
+        <v>22.45</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11170.61</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>20.78</v>
+        <v>25.74</v>
       </c>
       <c r="C83" t="n">
-        <v>8286.48</v>
+        <v>6743.26</v>
       </c>
       <c r="D83" t="n">
-        <v>81955.32000000001</v>
+        <v>18098.54</v>
       </c>
       <c r="E83" t="n">
-        <v>26.15</v>
+        <v>25.16</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6927.93</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>18.26</v>
+        <v>27.45</v>
       </c>
       <c r="C84" t="n">
-        <v>8663.290000000001</v>
+        <v>7183.69</v>
       </c>
       <c r="D84" t="n">
-        <v>90764.34</v>
+        <v>25425.26</v>
       </c>
       <c r="E84" t="n">
-        <v>25.37</v>
+        <v>26.45</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7326.719999999998</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13.1</v>
+        <v>31.71</v>
       </c>
       <c r="C85" t="n">
-        <v>5237.59</v>
+        <v>7628.42</v>
       </c>
       <c r="D85" t="n">
-        <v>11170.61</v>
+        <v>33182.32</v>
       </c>
       <c r="E85" t="n">
-        <v>22.45</v>
+        <v>27.67</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7757.060000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25.74</v>
+        <v>31.36</v>
       </c>
       <c r="C86" t="n">
-        <v>6743.26</v>
+        <v>8067.82</v>
       </c>
       <c r="D86" t="n">
-        <v>18098.54</v>
+        <v>41275</v>
       </c>
       <c r="E86" t="n">
-        <v>25.16</v>
+        <v>28.41</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8092.68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>27.45</v>
+        <v>27.92</v>
       </c>
       <c r="C87" t="n">
-        <v>7183.69</v>
+        <v>7715.78</v>
       </c>
       <c r="D87" t="n">
-        <v>25425.26</v>
+        <v>49036.56</v>
       </c>
       <c r="E87" t="n">
-        <v>26.45</v>
+        <v>28.17</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7761.559999999998</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>31.71</v>
+        <v>26.66</v>
       </c>
       <c r="C88" t="n">
-        <v>7628.42</v>
+        <v>7838.35</v>
       </c>
       <c r="D88" t="n">
-        <v>33182.32</v>
+        <v>56945.04</v>
       </c>
       <c r="E88" t="n">
-        <v>27.67</v>
+        <v>28.05</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7908.480000000003</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>31.36</v>
+        <v>21.5</v>
       </c>
       <c r="C89" t="n">
-        <v>8067.82</v>
+        <v>8241.360000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>41275</v>
+        <v>65290.4</v>
       </c>
       <c r="E89" t="n">
-        <v>28.41</v>
+        <v>27.42</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8345.360000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>27.92</v>
+        <v>21.64</v>
       </c>
       <c r="C90" t="n">
-        <v>7715.78</v>
+        <v>8124.41</v>
       </c>
       <c r="D90" t="n">
-        <v>49036.56</v>
+        <v>73490.16</v>
       </c>
       <c r="E90" t="n">
-        <v>28.17</v>
+        <v>26.88</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8199.760000000002</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>26.66</v>
+        <v>20.78</v>
       </c>
       <c r="C91" t="n">
-        <v>7838.35</v>
+        <v>8286.48</v>
       </c>
       <c r="D91" t="n">
-        <v>56945.04</v>
+        <v>81955.32000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>28.05</v>
+        <v>26.15</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8465.160000000003</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>21.5</v>
+        <v>18.26</v>
       </c>
       <c r="C92" t="n">
-        <v>8241.360000000001</v>
+        <v>8663.290000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>65290.4</v>
+        <v>90764.34</v>
       </c>
       <c r="E92" t="n">
-        <v>27.42</v>
+        <v>25.37</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8809.01999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13.56</v>
+        <v>20.95</v>
       </c>
       <c r="C93" t="n">
-        <v>8957.780000000001</v>
+        <v>6242.71</v>
       </c>
       <c r="D93" t="n">
-        <v>83559.27</v>
+        <v>13228.5</v>
       </c>
       <c r="E93" t="n">
-        <v>17.91</v>
+        <v>20.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>13228.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>10.1</v>
+        <v>21.06</v>
       </c>
       <c r="C94" t="n">
-        <v>8835.719999999999</v>
+        <v>7935.43</v>
       </c>
       <c r="D94" t="n">
-        <v>92454.24000000001</v>
+        <v>21209.32</v>
       </c>
       <c r="E94" t="n">
-        <v>17.26</v>
+        <v>20.88</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7980.82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>12.25</v>
+        <v>20.06</v>
       </c>
       <c r="C95" t="n">
-        <v>9389.629999999999</v>
+        <v>8299.549999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>101945.96</v>
+        <v>29635.13</v>
       </c>
       <c r="E95" t="n">
-        <v>16.58</v>
+        <v>20.7</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8425.810000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>20.95</v>
+        <v>14.89</v>
       </c>
       <c r="C96" t="n">
-        <v>6242.71</v>
+        <v>8499.790000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>13228.5</v>
+        <v>38204.52</v>
       </c>
       <c r="E96" t="n">
-        <v>20.2</v>
+        <v>19.68</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8569.389999999996</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>21.06</v>
+        <v>16.32</v>
       </c>
       <c r="C97" t="n">
-        <v>7935.43</v>
+        <v>9044.440000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>21209.32</v>
+        <v>47340.75</v>
       </c>
       <c r="E97" t="n">
-        <v>20.88</v>
+        <v>19.08</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9136.230000000003</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20.06</v>
+        <v>16.58</v>
       </c>
       <c r="C98" t="n">
-        <v>8299.549999999999</v>
+        <v>8723.09</v>
       </c>
       <c r="D98" t="n">
-        <v>29635.13</v>
+        <v>56190.25</v>
       </c>
       <c r="E98" t="n">
-        <v>20.7</v>
+        <v>18.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8849.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>14.89</v>
+        <v>17.16</v>
       </c>
       <c r="C99" t="n">
-        <v>8499.790000000001</v>
+        <v>8887.049999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>38204.52</v>
+        <v>65249.39</v>
       </c>
       <c r="E99" t="n">
-        <v>19.68</v>
+        <v>18.79</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9059.139999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16.32</v>
+        <v>13.86</v>
       </c>
       <c r="C100" t="n">
-        <v>9044.440000000001</v>
+        <v>9085.540000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>47340.75</v>
+        <v>74491.60000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>19.08</v>
+        <v>18.35</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9242.210000000006</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>16.58</v>
+        <v>13.56</v>
       </c>
       <c r="C101" t="n">
-        <v>8723.09</v>
+        <v>8957.780000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>56190.25</v>
+        <v>83559.27</v>
       </c>
       <c r="E101" t="n">
-        <v>18.8</v>
+        <v>17.91</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9067.669999999998</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>17.16</v>
+        <v>10.1</v>
       </c>
       <c r="C102" t="n">
-        <v>8887.049999999999</v>
+        <v>8835.719999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>65249.39</v>
+        <v>92454.24000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>18.79</v>
+        <v>17.26</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8894.970000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>13.86</v>
+        <v>12.25</v>
       </c>
       <c r="C103" t="n">
-        <v>9085.540000000001</v>
+        <v>9389.629999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>74491.60000000001</v>
+        <v>101945.96</v>
       </c>
       <c r="E103" t="n">
-        <v>18.35</v>
+        <v>16.58</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9491.720000000001</v>
       </c>
     </row>
   </sheetData>
